--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3850.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3850.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9810916034297368</v>
+        <v>2.586692571640015</v>
       </c>
       <c r="B1">
-        <v>1.456808594558276</v>
+        <v>4.872288703918457</v>
       </c>
       <c r="C1">
-        <v>3.004910946533224</v>
+        <v>6.49193811416626</v>
       </c>
       <c r="D1">
-        <v>4.553360930196038</v>
+        <v>6.453382015228271</v>
       </c>
       <c r="E1">
-        <v>2.410344301511024</v>
+        <v>5.352084636688232</v>
       </c>
     </row>
   </sheetData>
